--- a/va_facility_data_2025-02-20/East Meadow VA Clinic - Facility Data.xlsx"; filename*=UTF-8''East%20Meadow%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/East Meadow VA Clinic - Facility Data.xlsx"; filename*=UTF-8''East%20Meadow%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R04629520c8544e5a913b350211c3cef6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9b4a47cc122f4d9fa3a03b52f321198a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6838f5fc8ba640a5bbb572c73998d85b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R21923ccd68e145988c75a6dee4eeb07d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4835c0de94bc4ad69cf9910df5c4166d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re5a08f596f3a4c8b894b564c1a01a205"/>
   </x:sheets>
 </x:workbook>
 </file>
